--- a/DwellScanningEyeTrack/img_training/Week6/map3.xlsx
+++ b/DwellScanningEyeTrack/img_training/Week6/map3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\עמית 1 נוב 2013\פוסט\collaborations GCMRT\DP studies - NIH\Training task\Final - mixed blocks\Block 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\עמית 1 נוב 2013\פוסט\collaborations GCMRT\DP studies - NIH\Training task\Take 2\Final - mixed blocks\Block 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -90,10 +90,10 @@
     <t>block 3 matrix 1.bmp</t>
   </si>
   <si>
+    <t>DI</t>
+  </si>
+  <si>
     <t>NE</t>
-  </si>
-  <si>
-    <t>DI</t>
   </si>
   <si>
     <t>block 3 matrix 2.bmp</t>
@@ -1006,19 +1006,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1103,19 +1100,19 @@
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
@@ -1124,25 +1121,25 @@
         <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
         <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U2" t="s">
         <v>24</v>
@@ -1162,34 +1159,34 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
         <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -1198,16 +1195,16 @@
         <v>24</v>
       </c>
       <c r="R3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T3" t="s">
         <v>23</v>
       </c>
       <c r="U3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1230,13 +1227,13 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
         <v>23</v>
@@ -1245,7 +1242,7 @@
         <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s">
         <v>23</v>
@@ -1257,19 +1254,19 @@
         <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T4" t="s">
         <v>24</v>
       </c>
       <c r="U4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1292,22 +1289,22 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
         <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
         <v>23</v>
@@ -1316,19 +1313,19 @@
         <v>23</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q5" t="s">
         <v>24</v>
       </c>
       <c r="R5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U5" t="s">
         <v>24</v>
@@ -1348,16 +1345,16 @@
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
@@ -1369,7 +1366,7 @@
         <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
         <v>24</v>
@@ -1390,7 +1387,7 @@
         <v>24</v>
       </c>
       <c r="T6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U6" t="s">
         <v>23</v>
@@ -1410,7 +1407,7 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>24</v>
@@ -1422,28 +1419,28 @@
         <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
         <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7" t="s">
         <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
         <v>24</v>
       </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R7" t="s">
         <v>24</v>
@@ -1452,10 +1449,10 @@
         <v>24</v>
       </c>
       <c r="T7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1487,28 +1484,28 @@
         <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S8" t="s">
         <v>23</v>
@@ -1537,34 +1534,34 @@
         <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
         <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="s">
         <v>24</v>
@@ -1573,7 +1570,7 @@
         <v>23</v>
       </c>
       <c r="S9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T9" t="s">
         <v>24</v>
@@ -1596,25 +1593,25 @@
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
         <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
         <v>23</v>
@@ -1623,10 +1620,10 @@
         <v>23</v>
       </c>
       <c r="O10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q10" t="s">
         <v>23</v>
@@ -1638,10 +1635,10 @@
         <v>24</v>
       </c>
       <c r="T10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1661,13 +1658,13 @@
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
@@ -1682,7 +1679,7 @@
         <v>24</v>
       </c>
       <c r="N11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O11" t="s">
         <v>24</v>
@@ -1691,10 +1688,10 @@
         <v>23</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S11" t="s">
         <v>23</v>
@@ -1703,7 +1700,7 @@
         <v>24</v>
       </c>
       <c r="U11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1720,13 +1717,13 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
         <v>24</v>
@@ -1735,13 +1732,13 @@
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
         <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
         <v>23</v>
@@ -1750,22 +1747,22 @@
         <v>23</v>
       </c>
       <c r="P12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q12" t="s">
         <v>23</v>
       </c>
       <c r="R12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1782,7 +1779,7 @@
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
@@ -1794,31 +1791,31 @@
         <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P13" t="s">
         <v>23</v>
       </c>
       <c r="Q13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S13" t="s">
         <v>23</v>
@@ -1853,10 +1850,10 @@
         <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14" t="s">
         <v>23</v>
@@ -1865,7 +1862,7 @@
         <v>24</v>
       </c>
       <c r="M14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N14" t="s">
         <v>23</v>
@@ -1877,16 +1874,16 @@
         <v>23</v>
       </c>
       <c r="Q14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S14" t="s">
         <v>23</v>
       </c>
       <c r="T14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U14" t="s">
         <v>24</v>
@@ -1906,13 +1903,13 @@
         <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
         <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
         <v>23</v>
@@ -1942,10 +1939,10 @@
         <v>23</v>
       </c>
       <c r="R15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T15" t="s">
         <v>24</v>
@@ -1968,7 +1965,7 @@
         <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" t="s">
         <v>24</v>
@@ -1983,37 +1980,37 @@
         <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R16" t="s">
         <v>24</v>
       </c>
       <c r="S16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T16" t="s">
         <v>23</v>
       </c>
       <c r="U16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2039,19 +2036,19 @@
         <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s">
         <v>23</v>
       </c>
       <c r="M17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N17" t="s">
         <v>23</v>
@@ -2060,13 +2057,13 @@
         <v>24</v>
       </c>
       <c r="P17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S17" t="s">
         <v>24</v>
@@ -2075,7 +2072,7 @@
         <v>24</v>
       </c>
       <c r="U17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2092,22 +2089,22 @@
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
         <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L18" t="s">
         <v>24</v>
@@ -2116,13 +2113,13 @@
         <v>23</v>
       </c>
       <c r="N18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O18" t="s">
         <v>23</v>
       </c>
       <c r="P18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q18" t="s">
         <v>24</v>
@@ -2134,7 +2131,7 @@
         <v>23</v>
       </c>
       <c r="T18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U18" t="s">
         <v>24</v>
@@ -2154,10 +2151,10 @@
         <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
         <v>23</v>
@@ -2166,10 +2163,10 @@
         <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L19" t="s">
         <v>24</v>
@@ -2181,7 +2178,7 @@
         <v>24</v>
       </c>
       <c r="O19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P19" t="s">
         <v>23</v>
@@ -2193,7 +2190,7 @@
         <v>24</v>
       </c>
       <c r="S19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T19" t="s">
         <v>23</v>
@@ -2222,7 +2219,7 @@
         <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I20" t="s">
         <v>24</v>
@@ -2243,25 +2240,25 @@
         <v>24</v>
       </c>
       <c r="O20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2281,7 +2278,7 @@
         <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
         <v>23</v>
@@ -2290,7 +2287,7 @@
         <v>23</v>
       </c>
       <c r="J21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
         <v>24</v>
@@ -2302,25 +2299,25 @@
         <v>24</v>
       </c>
       <c r="N21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q21" t="s">
         <v>24</v>
       </c>
       <c r="R21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U21" t="s">
         <v>23</v>
@@ -2340,13 +2337,13 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I22" t="s">
         <v>24</v>
@@ -2355,25 +2352,25 @@
         <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L22" t="s">
         <v>24</v>
       </c>
       <c r="M22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N22" t="s">
         <v>23</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P22" t="s">
         <v>23</v>
       </c>
       <c r="Q22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R22" t="s">
         <v>23</v>
@@ -2408,13 +2405,13 @@
         <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I23" t="s">
         <v>24</v>
       </c>
       <c r="J23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
         <v>24</v>
@@ -2423,28 +2420,28 @@
         <v>23</v>
       </c>
       <c r="M23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U23" t="s">
         <v>23</v>
@@ -2464,13 +2461,13 @@
         <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I24" t="s">
         <v>24</v>
@@ -2488,7 +2485,7 @@
         <v>24</v>
       </c>
       <c r="N24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O24" t="s">
         <v>23</v>
@@ -2500,10 +2497,10 @@
         <v>23</v>
       </c>
       <c r="R24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T24" t="s">
         <v>24</v>
@@ -2526,7 +2523,7 @@
         <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G25" t="s">
         <v>24</v>
@@ -2541,10 +2538,10 @@
         <v>24</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M25" t="s">
         <v>23</v>
@@ -2553,22 +2550,22 @@
         <v>24</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S25" t="s">
         <v>23</v>
       </c>
       <c r="T25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U25" t="s">
         <v>23</v>
@@ -2591,37 +2588,37 @@
         <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J26" t="s">
         <v>24</v>
       </c>
       <c r="K26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L26" t="s">
         <v>24</v>
       </c>
       <c r="M26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N26" t="s">
         <v>23</v>
       </c>
       <c r="O26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P26" t="s">
         <v>23</v>
       </c>
       <c r="Q26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R26" t="s">
         <v>23</v>
@@ -2630,7 +2627,7 @@
         <v>24</v>
       </c>
       <c r="T26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U26" t="s">
         <v>24</v>
@@ -2653,37 +2650,37 @@
         <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K27" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N27" t="s">
         <v>23</v>
       </c>
       <c r="O27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P27" t="s">
         <v>23</v>
       </c>
       <c r="Q27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R27" t="s">
         <v>23</v>
@@ -2712,13 +2709,13 @@
         <v>50</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I28" t="s">
         <v>23</v>
@@ -2727,7 +2724,7 @@
         <v>24</v>
       </c>
       <c r="K28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L28" t="s">
         <v>24</v>
@@ -2742,13 +2739,13 @@
         <v>23</v>
       </c>
       <c r="P28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S28" t="s">
         <v>24</v>
@@ -2757,7 +2754,7 @@
         <v>24</v>
       </c>
       <c r="U28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2780,16 +2777,16 @@
         <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I29" t="s">
         <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L29" t="s">
         <v>24</v>
@@ -2801,7 +2798,7 @@
         <v>24</v>
       </c>
       <c r="O29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P29" t="s">
         <v>23</v>
@@ -2839,7 +2836,7 @@
         <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H30" t="s">
         <v>24</v>
@@ -2860,25 +2857,25 @@
         <v>23</v>
       </c>
       <c r="N30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q30" t="s">
         <v>24</v>
       </c>
       <c r="R30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S30" t="s">
         <v>24</v>
       </c>
       <c r="T30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U30" t="s">
         <v>23</v>
@@ -2898,19 +2895,19 @@
         <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G31" t="s">
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
         <v>24</v>
@@ -2919,10 +2916,10 @@
         <v>23</v>
       </c>
       <c r="M31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O31" t="s">
         <v>24</v>
@@ -2934,16 +2931,16 @@
         <v>23</v>
       </c>
       <c r="R31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
